--- a/Data/InstallationIIR(completed)-Malware.xlsx
+++ b/Data/InstallationIIR(completed)-Malware.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boxiang\Desktop\REU-Android-Spring2022\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79487E00-3874-4180-A1E9-329011823681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C462D5-A3A0-477B-AB95-EE56FCAD0971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="10" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="37">
   <si>
     <t>Result of Installment with 8 emulators(API level 19,21-27)</t>
   </si>
@@ -117,6 +117,30 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>malware-2010</t>
+  </si>
+  <si>
+    <t>malware-2011</t>
+  </si>
+  <si>
+    <t>malware-2012</t>
+  </si>
+  <si>
+    <t>malware-2013</t>
+  </si>
+  <si>
+    <t>malware-2014</t>
+  </si>
+  <si>
+    <t>malware-2015</t>
+  </si>
+  <si>
+    <t>malware-2016</t>
+  </si>
+  <si>
+    <t>malware-2017</t>
+  </si>
 </sst>
 </file>
 
@@ -197,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -328,10 +352,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color rgb="FF000000"/>
-      </right>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -344,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -386,9 +434,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -399,6 +444,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,16 +530,40 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$C$3:$C$5</c:f>
+              <c:f>Summary!$C$3:$C$13</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>malware-2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>malware-2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>malware-2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>malware-2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>malware-2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>malware-2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>malware-2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>malware-2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>malware-2018</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>malware-2019</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
                   <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
@@ -490,18 +571,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$D$3:$D$5</c:f>
+              <c:f>Summary!$D$3:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>5.1900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38479999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60050000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49930000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.70709999999999995</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>0.66420000000000001</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.68564999999999998</c:v>
+                <c:pt idx="10">
+                  <c:v>0.51388888888888884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -538,16 +643,40 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$C$3:$C$5</c:f>
+              <c:f>Summary!$C$3:$C$13</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>malware-2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>malware-2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>malware-2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>malware-2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>malware-2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>malware-2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>malware-2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>malware-2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>malware-2018</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>malware-2019</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
                   <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
@@ -555,18 +684,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$E$3:$E$5</c:f>
+              <c:f>Summary!$E$3:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>5.1900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38479999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60050000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49930000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.2455</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>0.4743</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3599</c:v>
+                <c:pt idx="10">
+                  <c:v>0.4415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -603,16 +756,40 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$C$3:$C$5</c:f>
+              <c:f>Summary!$C$3:$C$13</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>malware-2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>malware-2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>malware-2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>malware-2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>malware-2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>malware-2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>malware-2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>malware-2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>malware-2018</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>malware-2019</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
                   <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
@@ -620,18 +797,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$F$3:$F$5</c:f>
+              <c:f>Summary!$F$3:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>6.0299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38479999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57620000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49930000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.3211</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>0.69869999999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.50990000000000002</c:v>
+                <c:pt idx="10">
+                  <c:v>0.47644444444444439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -668,16 +869,40 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$C$3:$C$5</c:f>
+              <c:f>Summary!$C$3:$C$13</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>malware-2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>malware-2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>malware-2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>malware-2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>malware-2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>malware-2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>malware-2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>malware-2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>malware-2018</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>malware-2019</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
                   <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
@@ -685,18 +910,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$G$3:$G$5</c:f>
+              <c:f>Summary!$G$3:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>7.5200000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2051</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38379999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57540000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51980000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49969999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.28050000000000003</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>0.4899</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.38519999999999999</c:v>
+                <c:pt idx="10">
+                  <c:v>0.41594444444444439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -733,16 +982,40 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$C$3:$C$5</c:f>
+              <c:f>Summary!$C$3:$C$13</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>malware-2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>malware-2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>malware-2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>malware-2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>malware-2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>malware-2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>malware-2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>malware-2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>malware-2018</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>malware-2019</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
                   <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
@@ -750,18 +1023,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$H$3:$H$5</c:f>
+              <c:f>Summary!$H$3:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>7.5200000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38379999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5756</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5202</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>8.0000000000000004E-4</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.9000000000000002E-3</c:v>
+                <c:pt idx="10">
+                  <c:v>0.33115555555555554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -798,16 +1095,40 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$C$3:$C$5</c:f>
+              <c:f>Summary!$C$3:$C$13</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>malware-2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>malware-2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>malware-2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>malware-2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>malware-2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>malware-2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>malware-2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>malware-2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>malware-2018</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>malware-2019</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
                   <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
@@ -815,18 +1136,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$I$3:$I$5</c:f>
+              <c:f>Summary!$I$3:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>3.3599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2034</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57509999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5171</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49930000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3.5000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>3.3E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4000000000000002E-3</c:v>
+                <c:pt idx="10">
+                  <c:v>0.32581111111111105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,16 +1210,40 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$C$3:$C$5</c:f>
+              <c:f>Summary!$C$3:$C$13</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>malware-2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>malware-2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>malware-2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>malware-2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>malware-2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>malware-2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>malware-2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>malware-2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>malware-2018</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>malware-2019</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
                   <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
@@ -882,18 +1251,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$J$3:$J$5</c:f>
+              <c:f>Summary!$J$3:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>7.5200000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38379999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5756</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52017860209514</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
+                <c:pt idx="10">
+                  <c:v>0.3305087335661267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -932,16 +1325,40 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$C$3:$C$5</c:f>
+              <c:f>Summary!$C$3:$C$13</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>malware-2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>malware-2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>malware-2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>malware-2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>malware-2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>malware-2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>malware-2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>malware-2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>malware-2018</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>malware-2019</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
                   <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
@@ -949,18 +1366,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$K$3:$K$5</c:f>
+              <c:f>Summary!$K$3:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>4.8598130841121495E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9113324230985465E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7383493881801617E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45888618106327284</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4323962516733601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10578739481366993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16543375924680565</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3373493975903616E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
+                <c:pt idx="10">
+                  <c:v>0.14465954279428972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1800,15 +2241,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2135,10 +2576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB394EC5-EEAA-4F83-8323-EEB0E669672F}">
-  <dimension ref="C2:K5"/>
+  <dimension ref="C2:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2146,6 +2587,7 @@
     <col min="2" max="2" width="6.140625" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:11">
@@ -2176,97 +2618,329 @@
     </row>
     <row r="3" spans="3:11" ht="15.75">
       <c r="C3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="8">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="E3" s="8">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="G3" s="8">
+        <v>7.5200000000000003E-2</v>
+      </c>
+      <c r="H3" s="8">
+        <v>7.5200000000000003E-2</v>
+      </c>
+      <c r="I3" s="8">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="J3" s="8">
+        <v>7.5200000000000003E-2</v>
+      </c>
+      <c r="K3" s="8">
+        <v>4.8598130841121495E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" ht="15.75">
+      <c r="C4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.2051</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.20569999999999999</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0.2034</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0.20569999999999999</v>
+      </c>
+      <c r="K4" s="8">
+        <v>3.9113324230985465E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" ht="15.75">
+      <c r="C5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.38479999999999998</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.38479999999999998</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.38479999999999998</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.38379999999999997</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.38379999999999997</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.38319999999999999</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.38379999999999997</v>
+      </c>
+      <c r="K5" s="8">
+        <v>4.7383493881801617E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" ht="15.75">
+      <c r="C6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.73480000000000001</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.73480000000000001</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.51219999999999999</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0.45888618106327284</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" ht="15.75">
+      <c r="C7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.57579999999999998</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.57579999999999998</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.57620000000000005</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.57540000000000002</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.5756</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.57509999999999994</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.5756</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.4323962516733601</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" ht="15.75">
+      <c r="C8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.60050000000000003</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.60050000000000003</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.51980000000000004</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.5202</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.5171</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0.52017860209514</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0.10578739481366993</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" ht="15.75">
+      <c r="C9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.49930000000000002</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.49930000000000002</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.49930000000000002</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.49969999999999998</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.49930000000000002</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0.16543375924680565</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" ht="15.75">
+      <c r="C10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="23">
+        <v>0.2016</v>
+      </c>
+      <c r="E10" s="23">
+        <v>0.2016</v>
+      </c>
+      <c r="F10" s="23">
+        <v>0.2016</v>
+      </c>
+      <c r="G10" s="23">
+        <v>0.2016</v>
+      </c>
+      <c r="H10" s="23">
+        <v>0.2016</v>
+      </c>
+      <c r="I10" s="23">
+        <v>0.2016</v>
+      </c>
+      <c r="J10" s="23">
+        <v>0.2016</v>
+      </c>
+      <c r="K10" s="23">
+        <v>4.3373493975903616E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" ht="15.75">
+      <c r="C11" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D11" s="24">
         <v>0.70709999999999995</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E11" s="24">
         <v>0.2455</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F11" s="24">
         <v>0.3211</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G11" s="24">
         <v>0.28050000000000003</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H11" s="24">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I11" s="24">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J11" s="24">
         <v>0</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K11" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:11" ht="15.75">
-      <c r="C4" s="15" t="s">
+    <row r="12" spans="3:11" ht="15.75">
+      <c r="C12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D12" s="24">
         <v>0.66420000000000001</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E12" s="24">
         <v>0.4743</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F12" s="24">
         <v>0.69869999999999999</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G12" s="24">
         <v>0.4899</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H12" s="24">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I12" s="24">
         <v>3.3E-3</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J12" s="24">
         <v>0</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K12" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:11" ht="15.75">
-      <c r="C5" s="10" t="s">
+    <row r="13" spans="3:11" ht="15.75">
+      <c r="C13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="9">
-        <f>SUM(D3:D4)/2</f>
-        <v>0.68564999999999998</v>
-      </c>
-      <c r="E5" s="9">
-        <f t="shared" ref="E5:K5" si="0">SUM(E3:E4)/2</f>
-        <v>0.3599</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="D13" s="9">
+        <f>SUM(D3:D12) / 9</f>
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" ref="E13:K13" si="0">SUM(E3:E12) / 9</f>
+        <v>0.4415</v>
+      </c>
+      <c r="F13" s="9">
         <f t="shared" si="0"/>
-        <v>0.50990000000000002</v>
-      </c>
-      <c r="G5" s="9">
+        <v>0.47644444444444439</v>
+      </c>
+      <c r="G13" s="9">
         <f t="shared" si="0"/>
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H5" s="9">
+        <v>0.41594444444444439</v>
+      </c>
+      <c r="H13" s="9">
         <f t="shared" si="0"/>
-        <v>2.9000000000000002E-3</v>
-      </c>
-      <c r="I5" s="9">
+        <v>0.33115555555555554</v>
+      </c>
+      <c r="I13" s="9">
         <f t="shared" si="0"/>
-        <v>3.4000000000000002E-3</v>
-      </c>
-      <c r="J5" s="9">
+        <v>0.32581111111111105</v>
+      </c>
+      <c r="J13" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
+        <v>0.3305087335661267</v>
+      </c>
+      <c r="K13" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14465954279428972</v>
       </c>
     </row>
   </sheetData>
@@ -2284,7 +2958,7 @@
   <dimension ref="A1:Z962"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2293,15 +2967,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -2365,7 +3039,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2409,7 +3083,7 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="17"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -2451,7 +3125,7 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A5" s="17"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
@@ -2493,7 +3167,7 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A6" s="17"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
@@ -2535,7 +3209,7 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A7" s="17"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
@@ -2577,7 +3251,7 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="17"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
@@ -2619,7 +3293,7 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="17"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
@@ -2661,7 +3335,7 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="17"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
@@ -2703,7 +3377,7 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="17"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="11" t="s">
         <v>24</v>
       </c>
@@ -2745,7 +3419,7 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="17"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="11" t="s">
         <v>25</v>
       </c>
@@ -2787,7 +3461,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="17"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="11" t="s">
         <v>27</v>
       </c>
@@ -2829,7 +3503,7 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="17"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="11" t="s">
         <v>26</v>
       </c>
@@ -2871,7 +3545,7 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="18"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="12" t="s">
         <v>3</v>
       </c>
@@ -2916,7 +3590,7 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>21</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -2960,7 +3634,7 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A17" s="17"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
@@ -3002,7 +3676,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A18" s="17"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
@@ -3044,7 +3718,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A19" s="17"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="5" t="s">
         <v>11</v>
       </c>
@@ -3086,7 +3760,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A20" s="17"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -3128,7 +3802,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A21" s="17"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="5" t="s">
         <v>13</v>
       </c>
@@ -3170,7 +3844,7 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A22" s="17"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="5" t="s">
         <v>14</v>
       </c>
@@ -3212,7 +3886,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="17"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="5" t="s">
         <v>15</v>
       </c>
@@ -3254,7 +3928,7 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="17"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="11" t="s">
         <v>24</v>
       </c>
@@ -3297,7 +3971,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="17"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="11" t="s">
         <v>25</v>
       </c>
@@ -3339,7 +4013,7 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A26" s="17"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="11" t="s">
         <v>27</v>
       </c>
@@ -3381,7 +4055,7 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A27" s="17"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="11" t="s">
         <v>26</v>
       </c>
@@ -3423,7 +4097,7 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A28" s="18"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="12" t="s">
         <v>3</v>
       </c>
@@ -3468,7 +4142,7 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>22</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -3512,7 +4186,7 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A30" s="17"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="5" t="s">
         <v>9</v>
       </c>
@@ -3554,7 +4228,7 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A31" s="17"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="5" t="s">
         <v>10</v>
       </c>
@@ -3596,7 +4270,7 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="17"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="5" t="s">
         <v>11</v>
       </c>
@@ -3638,7 +4312,7 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="17"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="5" t="s">
         <v>12</v>
       </c>
@@ -3680,7 +4354,7 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26">
-      <c r="A34" s="17"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="5" t="s">
         <v>13</v>
       </c>
@@ -3722,7 +4396,7 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="17"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="5" t="s">
         <v>14</v>
       </c>
@@ -3764,7 +4438,7 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="17"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="5" t="s">
         <v>15</v>
       </c>
@@ -3806,7 +4480,7 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="17"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="11" t="s">
         <v>24</v>
       </c>
@@ -3849,7 +4523,7 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26">
-      <c r="A38" s="17"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="11" t="s">
         <v>25</v>
       </c>
@@ -3891,7 +4565,7 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="17"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="11" t="s">
         <v>27</v>
       </c>
@@ -3933,7 +4607,7 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="17"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="11" t="s">
         <v>26</v>
       </c>
@@ -3975,7 +4649,7 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="18"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="12" t="s">
         <v>3</v>
       </c>
@@ -4020,7 +4694,7 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="16">
+      <c r="A42" s="15">
         <v>23</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -4064,7 +4738,7 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="17"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="5" t="s">
         <v>9</v>
       </c>
@@ -4106,7 +4780,7 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26">
-      <c r="A44" s="17"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="5" t="s">
         <v>10</v>
       </c>
@@ -4148,7 +4822,7 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26">
-      <c r="A45" s="17"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="5" t="s">
         <v>11</v>
       </c>
@@ -4190,7 +4864,7 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26">
-      <c r="A46" s="17"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -4232,7 +4906,7 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26">
-      <c r="A47" s="17"/>
+      <c r="A47" s="16"/>
       <c r="B47" s="5" t="s">
         <v>13</v>
       </c>
@@ -4274,7 +4948,7 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26">
-      <c r="A48" s="17"/>
+      <c r="A48" s="16"/>
       <c r="B48" s="5" t="s">
         <v>14</v>
       </c>
@@ -4316,7 +4990,7 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26">
-      <c r="A49" s="17"/>
+      <c r="A49" s="16"/>
       <c r="B49" s="5" t="s">
         <v>15</v>
       </c>
@@ -4358,7 +5032,7 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26">
-      <c r="A50" s="17"/>
+      <c r="A50" s="16"/>
       <c r="B50" s="11" t="s">
         <v>24</v>
       </c>
@@ -4401,7 +5075,7 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26">
-      <c r="A51" s="17"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="11" t="s">
         <v>25</v>
       </c>
@@ -4443,7 +5117,7 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26">
-      <c r="A52" s="17"/>
+      <c r="A52" s="16"/>
       <c r="B52" s="11" t="s">
         <v>27</v>
       </c>
@@ -4485,7 +5159,7 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26">
-      <c r="A53" s="17"/>
+      <c r="A53" s="16"/>
       <c r="B53" s="11" t="s">
         <v>26</v>
       </c>
@@ -4527,7 +5201,7 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26">
-      <c r="A54" s="18"/>
+      <c r="A54" s="17"/>
       <c r="B54" s="12" t="s">
         <v>3</v>
       </c>
@@ -4572,7 +5246,7 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55" spans="1:26">
-      <c r="A55" s="16">
+      <c r="A55" s="15">
         <v>24</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -4616,7 +5290,7 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26">
-      <c r="A56" s="17"/>
+      <c r="A56" s="16"/>
       <c r="B56" s="5" t="s">
         <v>9</v>
       </c>
@@ -4658,7 +5332,7 @@
       <c r="Z56" s="1"/>
     </row>
     <row r="57" spans="1:26">
-      <c r="A57" s="17"/>
+      <c r="A57" s="16"/>
       <c r="B57" s="5" t="s">
         <v>10</v>
       </c>
@@ -4700,7 +5374,7 @@
       <c r="Z57" s="1"/>
     </row>
     <row r="58" spans="1:26">
-      <c r="A58" s="17"/>
+      <c r="A58" s="16"/>
       <c r="B58" s="5" t="s">
         <v>11</v>
       </c>
@@ -4742,7 +5416,7 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59" spans="1:26">
-      <c r="A59" s="17"/>
+      <c r="A59" s="16"/>
       <c r="B59" s="5" t="s">
         <v>12</v>
       </c>
@@ -4784,7 +5458,7 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="1:26">
-      <c r="A60" s="17"/>
+      <c r="A60" s="16"/>
       <c r="B60" s="5" t="s">
         <v>13</v>
       </c>
@@ -4826,7 +5500,7 @@
       <c r="Z60" s="1"/>
     </row>
     <row r="61" spans="1:26">
-      <c r="A61" s="17"/>
+      <c r="A61" s="16"/>
       <c r="B61" s="5" t="s">
         <v>14</v>
       </c>
@@ -4868,7 +5542,7 @@
       <c r="Z61" s="1"/>
     </row>
     <row r="62" spans="1:26">
-      <c r="A62" s="17"/>
+      <c r="A62" s="16"/>
       <c r="B62" s="5" t="s">
         <v>15</v>
       </c>
@@ -4910,7 +5584,7 @@
       <c r="Z62" s="1"/>
     </row>
     <row r="63" spans="1:26">
-      <c r="A63" s="17"/>
+      <c r="A63" s="16"/>
       <c r="B63" s="11" t="s">
         <v>24</v>
       </c>
@@ -4953,7 +5627,7 @@
       <c r="Z63" s="1"/>
     </row>
     <row r="64" spans="1:26">
-      <c r="A64" s="17"/>
+      <c r="A64" s="16"/>
       <c r="B64" s="11" t="s">
         <v>25</v>
       </c>
@@ -4995,7 +5669,7 @@
       <c r="Z64" s="1"/>
     </row>
     <row r="65" spans="1:26">
-      <c r="A65" s="17"/>
+      <c r="A65" s="16"/>
       <c r="B65" s="11" t="s">
         <v>27</v>
       </c>
@@ -5037,7 +5711,7 @@
       <c r="Z65" s="1"/>
     </row>
     <row r="66" spans="1:26">
-      <c r="A66" s="17"/>
+      <c r="A66" s="16"/>
       <c r="B66" s="11" t="s">
         <v>26</v>
       </c>
@@ -5079,7 +5753,7 @@
       <c r="Z66" s="1"/>
     </row>
     <row r="67" spans="1:26">
-      <c r="A67" s="18"/>
+      <c r="A67" s="17"/>
       <c r="B67" s="12" t="s">
         <v>3</v>
       </c>
@@ -5124,7 +5798,7 @@
       <c r="Z67" s="1"/>
     </row>
     <row r="68" spans="1:26">
-      <c r="A68" s="16">
+      <c r="A68" s="15">
         <v>25</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -5168,7 +5842,7 @@
       <c r="Z68" s="1"/>
     </row>
     <row r="69" spans="1:26">
-      <c r="A69" s="17"/>
+      <c r="A69" s="16"/>
       <c r="B69" s="5" t="s">
         <v>9</v>
       </c>
@@ -5210,7 +5884,7 @@
       <c r="Z69" s="1"/>
     </row>
     <row r="70" spans="1:26">
-      <c r="A70" s="17"/>
+      <c r="A70" s="16"/>
       <c r="B70" s="5" t="s">
         <v>10</v>
       </c>
@@ -5252,7 +5926,7 @@
       <c r="Z70" s="1"/>
     </row>
     <row r="71" spans="1:26">
-      <c r="A71" s="17"/>
+      <c r="A71" s="16"/>
       <c r="B71" s="5" t="s">
         <v>11</v>
       </c>
@@ -5294,7 +5968,7 @@
       <c r="Z71" s="1"/>
     </row>
     <row r="72" spans="1:26">
-      <c r="A72" s="17"/>
+      <c r="A72" s="16"/>
       <c r="B72" s="5" t="s">
         <v>12</v>
       </c>
@@ -5336,7 +6010,7 @@
       <c r="Z72" s="1"/>
     </row>
     <row r="73" spans="1:26">
-      <c r="A73" s="17"/>
+      <c r="A73" s="16"/>
       <c r="B73" s="5" t="s">
         <v>13</v>
       </c>
@@ -5378,7 +6052,7 @@
       <c r="Z73" s="1"/>
     </row>
     <row r="74" spans="1:26">
-      <c r="A74" s="17"/>
+      <c r="A74" s="16"/>
       <c r="B74" s="5" t="s">
         <v>14</v>
       </c>
@@ -5420,7 +6094,7 @@
       <c r="Z74" s="1"/>
     </row>
     <row r="75" spans="1:26">
-      <c r="A75" s="17"/>
+      <c r="A75" s="16"/>
       <c r="B75" s="5" t="s">
         <v>15</v>
       </c>
@@ -5462,7 +6136,7 @@
       <c r="Z75" s="1"/>
     </row>
     <row r="76" spans="1:26">
-      <c r="A76" s="17"/>
+      <c r="A76" s="16"/>
       <c r="B76" s="11" t="s">
         <v>24</v>
       </c>
@@ -5505,7 +6179,7 @@
       <c r="Z76" s="1"/>
     </row>
     <row r="77" spans="1:26">
-      <c r="A77" s="17"/>
+      <c r="A77" s="16"/>
       <c r="B77" s="11" t="s">
         <v>25</v>
       </c>
@@ -5547,7 +6221,7 @@
       <c r="Z77" s="1"/>
     </row>
     <row r="78" spans="1:26">
-      <c r="A78" s="17"/>
+      <c r="A78" s="16"/>
       <c r="B78" s="11" t="s">
         <v>27</v>
       </c>
@@ -5589,7 +6263,7 @@
       <c r="Z78" s="1"/>
     </row>
     <row r="79" spans="1:26">
-      <c r="A79" s="17"/>
+      <c r="A79" s="16"/>
       <c r="B79" s="11" t="s">
         <v>26</v>
       </c>
@@ -5631,7 +6305,7 @@
       <c r="Z79" s="1"/>
     </row>
     <row r="80" spans="1:26">
-      <c r="A80" s="18"/>
+      <c r="A80" s="17"/>
       <c r="B80" s="12" t="s">
         <v>3</v>
       </c>
@@ -5676,7 +6350,7 @@
       <c r="Z80" s="1"/>
     </row>
     <row r="81" spans="1:26">
-      <c r="A81" s="16">
+      <c r="A81" s="15">
         <v>26</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -5720,7 +6394,7 @@
       <c r="Z81" s="1"/>
     </row>
     <row r="82" spans="1:26">
-      <c r="A82" s="17"/>
+      <c r="A82" s="16"/>
       <c r="B82" s="5" t="s">
         <v>9</v>
       </c>
@@ -5762,7 +6436,7 @@
       <c r="Z82" s="1"/>
     </row>
     <row r="83" spans="1:26">
-      <c r="A83" s="17"/>
+      <c r="A83" s="16"/>
       <c r="B83" s="5" t="s">
         <v>10</v>
       </c>
@@ -5804,7 +6478,7 @@
       <c r="Z83" s="1"/>
     </row>
     <row r="84" spans="1:26">
-      <c r="A84" s="17"/>
+      <c r="A84" s="16"/>
       <c r="B84" s="5" t="s">
         <v>11</v>
       </c>
@@ -5846,7 +6520,7 @@
       <c r="Z84" s="1"/>
     </row>
     <row r="85" spans="1:26">
-      <c r="A85" s="17"/>
+      <c r="A85" s="16"/>
       <c r="B85" s="5" t="s">
         <v>12</v>
       </c>
@@ -5888,7 +6562,7 @@
       <c r="Z85" s="1"/>
     </row>
     <row r="86" spans="1:26">
-      <c r="A86" s="17"/>
+      <c r="A86" s="16"/>
       <c r="B86" s="5" t="s">
         <v>13</v>
       </c>
@@ -5930,7 +6604,7 @@
       <c r="Z86" s="1"/>
     </row>
     <row r="87" spans="1:26">
-      <c r="A87" s="17"/>
+      <c r="A87" s="16"/>
       <c r="B87" s="5" t="s">
         <v>14</v>
       </c>
@@ -5972,7 +6646,7 @@
       <c r="Z87" s="1"/>
     </row>
     <row r="88" spans="1:26">
-      <c r="A88" s="17"/>
+      <c r="A88" s="16"/>
       <c r="B88" s="5" t="s">
         <v>15</v>
       </c>
@@ -6014,7 +6688,7 @@
       <c r="Z88" s="1"/>
     </row>
     <row r="89" spans="1:26">
-      <c r="A89" s="17"/>
+      <c r="A89" s="16"/>
       <c r="B89" s="11" t="s">
         <v>24</v>
       </c>
@@ -6056,7 +6730,7 @@
       <c r="Z89" s="1"/>
     </row>
     <row r="90" spans="1:26">
-      <c r="A90" s="17"/>
+      <c r="A90" s="16"/>
       <c r="B90" s="11" t="s">
         <v>25</v>
       </c>
@@ -6098,7 +6772,7 @@
       <c r="Z90" s="1"/>
     </row>
     <row r="91" spans="1:26">
-      <c r="A91" s="17"/>
+      <c r="A91" s="16"/>
       <c r="B91" s="11" t="s">
         <v>27</v>
       </c>
@@ -6140,7 +6814,7 @@
       <c r="Z91" s="1"/>
     </row>
     <row r="92" spans="1:26">
-      <c r="A92" s="17"/>
+      <c r="A92" s="16"/>
       <c r="B92" s="11" t="s">
         <v>26</v>
       </c>
@@ -6182,7 +6856,7 @@
       <c r="Z92" s="1"/>
     </row>
     <row r="93" spans="1:26">
-      <c r="A93" s="18"/>
+      <c r="A93" s="17"/>
       <c r="B93" s="12" t="s">
         <v>3</v>
       </c>
@@ -6227,7 +6901,7 @@
       <c r="Z93" s="1"/>
     </row>
     <row r="94" spans="1:26">
-      <c r="A94" s="16">
+      <c r="A94" s="15">
         <v>27</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -6271,7 +6945,7 @@
       <c r="Z94" s="1"/>
     </row>
     <row r="95" spans="1:26">
-      <c r="A95" s="17"/>
+      <c r="A95" s="16"/>
       <c r="B95" s="5" t="s">
         <v>9</v>
       </c>
@@ -6313,7 +6987,7 @@
       <c r="Z95" s="1"/>
     </row>
     <row r="96" spans="1:26">
-      <c r="A96" s="17"/>
+      <c r="A96" s="16"/>
       <c r="B96" s="5" t="s">
         <v>10</v>
       </c>
@@ -6355,7 +7029,7 @@
       <c r="Z96" s="1"/>
     </row>
     <row r="97" spans="1:26">
-      <c r="A97" s="17"/>
+      <c r="A97" s="16"/>
       <c r="B97" s="5" t="s">
         <v>11</v>
       </c>
@@ -6397,7 +7071,7 @@
       <c r="Z97" s="1"/>
     </row>
     <row r="98" spans="1:26">
-      <c r="A98" s="17"/>
+      <c r="A98" s="16"/>
       <c r="B98" s="5" t="s">
         <v>12</v>
       </c>
@@ -6439,7 +7113,7 @@
       <c r="Z98" s="1"/>
     </row>
     <row r="99" spans="1:26">
-      <c r="A99" s="17"/>
+      <c r="A99" s="16"/>
       <c r="B99" s="5" t="s">
         <v>13</v>
       </c>
@@ -6481,7 +7155,7 @@
       <c r="Z99" s="1"/>
     </row>
     <row r="100" spans="1:26">
-      <c r="A100" s="17"/>
+      <c r="A100" s="16"/>
       <c r="B100" s="5" t="s">
         <v>14</v>
       </c>
@@ -6523,7 +7197,7 @@
       <c r="Z100" s="1"/>
     </row>
     <row r="101" spans="1:26">
-      <c r="A101" s="17"/>
+      <c r="A101" s="16"/>
       <c r="B101" s="5" t="s">
         <v>15</v>
       </c>
@@ -6565,7 +7239,7 @@
       <c r="Z101" s="1"/>
     </row>
     <row r="102" spans="1:26">
-      <c r="A102" s="17"/>
+      <c r="A102" s="16"/>
       <c r="B102" s="11" t="s">
         <v>24</v>
       </c>
@@ -6607,7 +7281,7 @@
       <c r="Z102" s="1"/>
     </row>
     <row r="103" spans="1:26">
-      <c r="A103" s="17"/>
+      <c r="A103" s="16"/>
       <c r="B103" s="11" t="s">
         <v>25</v>
       </c>
@@ -6649,7 +7323,7 @@
       <c r="Z103" s="1"/>
     </row>
     <row r="104" spans="1:26">
-      <c r="A104" s="17"/>
+      <c r="A104" s="16"/>
       <c r="B104" s="11" t="s">
         <v>27</v>
       </c>
@@ -6691,7 +7365,7 @@
       <c r="Z104" s="1"/>
     </row>
     <row r="105" spans="1:26">
-      <c r="A105" s="17"/>
+      <c r="A105" s="16"/>
       <c r="B105" s="11" t="s">
         <v>26</v>
       </c>
@@ -6733,7 +7407,7 @@
       <c r="Z105" s="1"/>
     </row>
     <row r="106" spans="1:26">
-      <c r="A106" s="18"/>
+      <c r="A106" s="17"/>
       <c r="B106" s="12" t="s">
         <v>3</v>
       </c>
